--- a/xlsx/判例法_intext.xlsx
+++ b/xlsx/判例法_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="340">
   <si>
     <t>判例法</t>
   </si>
@@ -29,7 +29,7 @@
     <t>判例</t>
   </si>
   <si>
-    <t>政策_政策_美國_判例法</t>
+    <t>政策_政策_美国_判例法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>法律原則</t>
+    <t>法律原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%98</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%A8%B4%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>上訴法庭</t>
+    <t>上诉法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E6%B3%95%E7%B3%BB</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%B8%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>歐陸法系</t>
+    <t>欧陆法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E6%B1%BA%E5%85%88%E4%BE%8B</t>
   </si>
   <si>
-    <t>判決先例</t>
+    <t>判决先例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E6%96%87%E6%B3%95</t>
@@ -107,19 +107,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E9%99%86%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>欧陆法系</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E9%83%A8%E9%96%80</t>
   </si>
   <si>
-    <t>司法部門</t>
+    <t>司法部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E6%84%8F%E8%A6%8B%E6%9B%B8</t>
   </si>
   <si>
-    <t>法律意見書</t>
+    <t>法律意见书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%B3%95%E5%BE%8B</t>
@@ -137,19 +134,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E5%88%B6%E6%80%A7%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>憲制性法律</t>
+    <t>宪制性法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>契約</t>
+    <t>契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E6%B3%95</t>
@@ -167,13 +164,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E6%93%9A</t>
   </si>
   <si>
-    <t>證據</t>
+    <t>证据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
+    <t>国际法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%BA%E6%9D%83%E6%B3%95</t>
@@ -191,25 +188,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>民事訴訟法</t>
+    <t>民事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>刑事訴訟法</t>
+    <t>刑事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>行政訴訟法</t>
+    <t>行政诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%AC%8A</t>
   </si>
   <si>
-    <t>物權</t>
+    <t>物权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B3%95</t>
@@ -251,7 +248,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
+    <t>破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%B3%95</t>
@@ -263,13 +260,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E6%B3%95</t>
   </si>
   <si>
-    <t>競爭法</t>
+    <t>竞争法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A7%81%E6%B3%95</t>
   </si>
   <si>
-    <t>國際私法</t>
+    <t>国际私法</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Construction_law</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>知識產權</t>
+    <t>知识产权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_criminal_law</t>
@@ -353,13 +350,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E6%AC%8A%E6%B3%95</t>
   </si>
   <si>
-    <t>國際人權法</t>
+    <t>国际人权法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E6%B3%95</t>
   </si>
   <si>
-    <t>勞工法</t>
+    <t>劳工法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E6%B3%95</t>
@@ -395,19 +392,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E6%89%BF%E6%B3%95</t>
   </si>
   <si>
-    <t>繼承法</t>
+    <t>继承法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>財產</t>
+    <t>财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%9B%91</t>
   </si>
   <si>
-    <t>遺囑</t>
+    <t>遗嘱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Product_liability</t>
@@ -467,19 +464,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
   </si>
   <si>
-    <t>君權神授說</t>
+    <t>君权神授说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>自然權利</t>
+    <t>自然权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%A1%88</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%94%E4%BB%A4%E6%96%87%E6%9B%B8</t>
   </si>
   <si>
-    <t>詔令文書</t>
+    <t>诏令文书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%91%BD%E4%BB%A4</t>
@@ -539,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>行政法規</t>
+    <t>行政法规</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rulemaking</t>
@@ -563,25 +560,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>法規</t>
+    <t>法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E8%AD%B0%E6%9C%83%E7%AB%8B%E6%B3%95</t>
   </si>
   <si>
-    <t>英聯邦議會立法</t>
+    <t>英联邦议会立法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國國會法案</t>
+    <t>美国国会法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>條約</t>
+    <t>条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%B3%BB</t>
@@ -593,13 +590,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>大陸法系</t>
+    <t>大陆法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>中華法系</t>
+    <t>中华法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%A4%9A%E5%85%83%E8%AE%BA</t>
@@ -647,13 +644,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%87%8C%E4%BA%9E%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>沙里亞法規</t>
+    <t>沙里亚法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%B3%95</t>
   </si>
   <si>
-    <t>羅馬法</t>
+    <t>罗马法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E6%B3%95%E7%B3%BB</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>法學</t>
+    <t>法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E6%B3%95%E5%BE%8B%E7%A0%94%E7%A9%B6</t>
@@ -689,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較法學</t>
+    <t>比较法学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_legal_theory</t>
@@ -743,7 +740,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>法律哲學</t>
+    <t>法律哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adjudication</t>
@@ -767,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>軍事法庭</t>
+    <t>军事法庭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dispute_resolution</t>
@@ -779,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊斯蘭教法學</t>
+    <t>伊斯兰教法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E6%84%8F%E8%A7%81</t>
@@ -797,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E7%B4%B3%E5%A3%AB</t>
   </si>
   <si>
-    <t>太平紳士</t>
+    <t>太平绅士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E5%AE%98</t>
@@ -815,25 +812,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E8%A6%86%E6%A0%B8</t>
   </si>
   <si>
-    <t>司法覆核</t>
+    <t>司法复核</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%AE%A1%E8%BD%84%E6%AC%8A</t>
   </si>
   <si>
-    <t>司法管轄權</t>
+    <t>司法管辖权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%AA%E5%AF%A9%E5%9C%98</t>
   </si>
   <si>
-    <t>陪審團</t>
+    <t>陪审团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>公平正義</t>
+    <t>公平正义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Legal_profession</t>
@@ -851,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%9F%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>訟務律師</t>
+    <t>讼务律师</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Counsel</t>
@@ -863,25 +860,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E5%AF%9F%E5%AE%98</t>
   </si>
   <si>
-    <t>檢察官</t>
+    <t>检察官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>事務律師</t>
+    <t>事务律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>法學家</t>
+    <t>法学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Paralegal</t>
@@ -941,19 +938,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>律師學院</t>
+    <t>律师学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E4%BA%8B%E5%8B%99%E6%89%80</t>
   </si>
   <si>
-    <t>律師事務所</t>
+    <t>律师事务所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>公民社會</t>
+    <t>公民社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD</t>
@@ -977,19 +974,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E9%81%94%E5%90%8F</t>
   </si>
   <si>
-    <t>執達吏</t>
+    <t>执达吏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>選舉委員會</t>
+    <t>选举委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>行政機關</t>
+    <t>行政机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%9C%BA%E5%85%B3</t>
@@ -1013,13 +1010,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>立法機關</t>
+    <t>立法机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>軍隊</t>
+    <t>军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F</t>
@@ -1031,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tribunal</t>
@@ -1814,7 +1811,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1840,10 +1837,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1869,10 +1866,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1898,10 +1895,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -1927,10 +1924,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1956,10 +1953,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1985,10 +1982,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2014,10 +2011,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2043,10 +2040,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2072,10 +2069,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2101,10 +2098,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2130,10 +2127,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -2159,10 +2156,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2188,10 +2185,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2217,10 +2214,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2246,10 +2243,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2275,10 +2272,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2304,10 +2301,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2333,10 +2330,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2362,10 +2359,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2391,10 +2388,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2420,10 +2417,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2449,10 +2446,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2478,10 +2475,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2507,10 +2504,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2536,10 +2533,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2565,10 +2562,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2594,10 +2591,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2623,10 +2620,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2652,10 +2649,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2681,10 +2678,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2710,10 +2707,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2739,10 +2736,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2768,10 +2765,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2797,10 +2794,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2826,10 +2823,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2855,10 +2852,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2884,10 +2881,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2913,10 +2910,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2942,10 +2939,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2971,10 +2968,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3000,10 +2997,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3029,10 +3026,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3058,10 +3055,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3087,10 +3084,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3116,10 +3113,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3145,10 +3142,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3174,10 +3171,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3203,10 +3200,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3232,10 +3229,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3261,10 +3258,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3290,10 +3287,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3319,10 +3316,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3348,10 +3345,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3377,10 +3374,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3406,10 +3403,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3435,10 +3432,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3464,10 +3461,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3493,10 +3490,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3522,10 +3519,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3551,10 +3548,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3580,10 +3577,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3609,10 +3606,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3638,10 +3635,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3667,10 +3664,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3696,10 +3693,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3725,10 +3722,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3754,10 +3751,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3783,10 +3780,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3812,10 +3809,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3841,10 +3838,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>5</v>
@@ -3870,10 +3867,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3899,10 +3896,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3928,10 +3925,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3957,10 +3954,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3986,10 +3983,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4015,10 +4012,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>6</v>
@@ -4044,10 +4041,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4073,10 +4070,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4102,10 +4099,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4131,10 +4128,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4160,10 +4157,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4218,10 +4215,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4247,10 +4244,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4276,10 +4273,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4305,10 +4302,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4334,10 +4331,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4363,10 +4360,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4392,10 +4389,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4421,10 +4418,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4450,10 +4447,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4479,10 +4476,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4508,10 +4505,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4537,10 +4534,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4566,10 +4563,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4595,10 +4592,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4624,10 +4621,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4653,10 +4650,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4682,10 +4679,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4711,10 +4708,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4740,10 +4737,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4769,10 +4766,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4798,10 +4795,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4827,10 +4824,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4856,10 +4853,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4885,10 +4882,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4914,10 +4911,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4943,10 +4940,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4972,10 +4969,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>12</v>
@@ -5001,10 +4998,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5030,10 +5027,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5059,10 +5056,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5088,10 +5085,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5117,10 +5114,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5146,10 +5143,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5175,10 +5172,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5204,10 +5201,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5233,10 +5230,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5262,10 +5259,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5291,10 +5288,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5320,10 +5317,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5349,10 +5346,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5378,10 +5375,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5407,10 +5404,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5436,10 +5433,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5465,10 +5462,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5494,10 +5491,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>7</v>
@@ -5523,10 +5520,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5552,10 +5549,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5581,10 +5578,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5610,10 +5607,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5639,10 +5636,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5668,10 +5665,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5697,10 +5694,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5726,10 +5723,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5755,10 +5752,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5784,10 +5781,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5813,10 +5810,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5842,10 +5839,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5871,10 +5868,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5900,10 +5897,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5929,10 +5926,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5958,10 +5955,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -5987,10 +5984,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6016,10 +6013,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6045,10 +6042,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6074,10 +6071,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6103,10 +6100,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" t="s">
         <v>323</v>
-      </c>
-      <c r="F163" t="s">
-        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6132,10 +6129,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
         <v>325</v>
-      </c>
-      <c r="F164" t="s">
-        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6161,10 +6158,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>326</v>
+      </c>
+      <c r="F165" t="s">
         <v>327</v>
-      </c>
-      <c r="F165" t="s">
-        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6190,10 +6187,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>218</v>
+      </c>
+      <c r="F166" t="s">
         <v>219</v>
-      </c>
-      <c r="F166" t="s">
-        <v>220</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6219,10 +6216,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>328</v>
+      </c>
+      <c r="F167" t="s">
         <v>329</v>
-      </c>
-      <c r="F167" t="s">
-        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6248,10 +6245,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>330</v>
+      </c>
+      <c r="F168" t="s">
         <v>331</v>
-      </c>
-      <c r="F168" t="s">
-        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6277,10 +6274,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>332</v>
+      </c>
+      <c r="F169" t="s">
         <v>333</v>
-      </c>
-      <c r="F169" t="s">
-        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6306,10 +6303,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>334</v>
+      </c>
+      <c r="F170" t="s">
         <v>335</v>
-      </c>
-      <c r="F170" t="s">
-        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6335,10 +6332,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>336</v>
+      </c>
+      <c r="F171" t="s">
         <v>337</v>
-      </c>
-      <c r="F171" t="s">
-        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6364,10 +6361,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>338</v>
+      </c>
+      <c r="F172" t="s">
         <v>339</v>
-      </c>
-      <c r="F172" t="s">
-        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
